--- a/Viva Havana/Assets/Photo_justUS/photo/list.xlsx
+++ b/Viva Havana/Assets/Photo_justUS/photo/list.xlsx
@@ -107,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,13 +115,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -133,10 +145,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -144,8 +157,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -426,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +457,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="3">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -453,232 +470,232 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>12</v>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>17</v>
+      <c r="A7" s="3">
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>5</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>6</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>7</v>
+      <c r="A13" s="3">
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>8</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>9</v>
+      <c r="A15" s="3">
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>10</v>
+      <c r="A16" s="3">
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -753,7 +770,7 @@
     </row>
   </sheetData>
   <sortState ref="A1:D30">
-    <sortCondition ref="C1"/>
+    <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
